--- a/biology/Zoologie/Gallodrome/Gallodrome.xlsx
+++ b/biology/Zoologie/Gallodrome/Gallodrome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle gallodrome le bâtiment généralement circulaire dans lequel sont organisés des combats de coqs.
 </t>
@@ -511,11 +523,13 @@
           <t>Les gallodromes en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À La Réunion, on compte encore cinq gallodromes officiellement tolérés et de nombreux autres illégaux.
 En Martinique et en Guadeloupe existent encore de nombreux gallodromes appelés localement pitt à coq.
-Les départements du Nord et du Pas-de-Calais sont les seuls de France métropolitaine a posséder une vingtaine de gallodromes. Selon la loi du 8 juillet 1964, ceux-ci sont uniquement autorisés dans les communes où la pratique du combat de coq ne s'est jamais interrompu. Toutefois, elle interdit toute création de nouveaux gallodromes et même le remplacement d'un site qui viendrait à fermer[1].
+Les départements du Nord et du Pas-de-Calais sont les seuls de France métropolitaine a posséder une vingtaine de gallodromes. Selon la loi du 8 juillet 1964, ceux-ci sont uniquement autorisés dans les communes où la pratique du combat de coq ne s'est jamais interrompu. Toutefois, elle interdit toute création de nouveaux gallodromes et même le remplacement d'un site qui viendrait à fermer.
 </t>
         </is>
       </c>
